--- a/data/pca/factorExposure/factorExposure_2012-05-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-25.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0171713523899158</v>
+        <v>0.02173771604438856</v>
       </c>
       <c r="C2">
-        <v>-0.03397976202366794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02662704705095812</v>
+      </c>
+      <c r="D2">
+        <v>0.002534008106680932</v>
+      </c>
+      <c r="E2">
+        <v>0.02900479562292873</v>
+      </c>
+      <c r="F2">
+        <v>-0.01065727949996849</v>
+      </c>
+      <c r="G2">
+        <v>0.0112492566619935</v>
+      </c>
+      <c r="H2">
+        <v>-0.05460854465201891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.06917635532475756</v>
+        <v>0.07914127934943624</v>
       </c>
       <c r="C4">
-        <v>-0.05960226070047307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03983215739562143</v>
+      </c>
+      <c r="D4">
+        <v>-0.06942910887843769</v>
+      </c>
+      <c r="E4">
+        <v>-0.0005277083783879647</v>
+      </c>
+      <c r="F4">
+        <v>-0.03448403866066733</v>
+      </c>
+      <c r="G4">
+        <v>-0.003983552752964502</v>
+      </c>
+      <c r="H4">
+        <v>0.02346882131805939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.09958800338365734</v>
+        <v>0.1158468476827524</v>
       </c>
       <c r="C6">
-        <v>-0.06505887703178173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04081317911303826</v>
+      </c>
+      <c r="D6">
+        <v>-0.01298417226358629</v>
+      </c>
+      <c r="E6">
+        <v>-0.007210416108335635</v>
+      </c>
+      <c r="F6">
+        <v>-0.05171530825389058</v>
+      </c>
+      <c r="G6">
+        <v>0.01398091121915595</v>
+      </c>
+      <c r="H6">
+        <v>-0.06505633227347211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04741557023086124</v>
+        <v>0.05895745922795225</v>
       </c>
       <c r="C7">
-        <v>-0.0341330767296277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02388894723559507</v>
+      </c>
+      <c r="D7">
+        <v>-0.04237481378503713</v>
+      </c>
+      <c r="E7">
+        <v>0.01915211068763021</v>
+      </c>
+      <c r="F7">
+        <v>-0.03808017442846666</v>
+      </c>
+      <c r="G7">
+        <v>-0.0447685928280732</v>
+      </c>
+      <c r="H7">
+        <v>0.02936249986793565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03501031824801925</v>
+        <v>0.03795021754726153</v>
       </c>
       <c r="C8">
-        <v>-0.02508951904149711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01417053833323839</v>
+      </c>
+      <c r="D8">
+        <v>-0.03566186292410857</v>
+      </c>
+      <c r="E8">
+        <v>0.001362429345217053</v>
+      </c>
+      <c r="F8">
+        <v>-0.04596466331073986</v>
+      </c>
+      <c r="G8">
+        <v>0.02596079277223926</v>
+      </c>
+      <c r="H8">
+        <v>-0.02507796692379001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06355032429722628</v>
+        <v>0.07399524952545151</v>
       </c>
       <c r="C9">
-        <v>-0.04725087688823611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.0292763082870257</v>
+      </c>
+      <c r="D9">
+        <v>-0.06780876523679819</v>
+      </c>
+      <c r="E9">
+        <v>0.01733963115444356</v>
+      </c>
+      <c r="F9">
+        <v>-0.04335156319522044</v>
+      </c>
+      <c r="G9">
+        <v>-0.004027943797506875</v>
+      </c>
+      <c r="H9">
+        <v>0.05174751594601783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03298814991695468</v>
+        <v>0.04357592207207123</v>
       </c>
       <c r="C10">
-        <v>-0.03536687549274707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03575288025416747</v>
+      </c>
+      <c r="D10">
+        <v>0.178872438951422</v>
+      </c>
+      <c r="E10">
+        <v>0.04458664228309908</v>
+      </c>
+      <c r="F10">
+        <v>-0.03954479022359844</v>
+      </c>
+      <c r="G10">
+        <v>-0.038930525674556</v>
+      </c>
+      <c r="H10">
+        <v>-0.03054971630456479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.06642849085338277</v>
+        <v>0.07527253260183485</v>
       </c>
       <c r="C11">
-        <v>-0.05041404538572753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02988373664069371</v>
+      </c>
+      <c r="D11">
+        <v>-0.06789540316938394</v>
+      </c>
+      <c r="E11">
+        <v>-0.01260963364177985</v>
+      </c>
+      <c r="F11">
+        <v>-0.03426964632321287</v>
+      </c>
+      <c r="G11">
+        <v>-0.01868837188669297</v>
+      </c>
+      <c r="H11">
+        <v>0.0882317129378688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05190445555801448</v>
+        <v>0.06411251527763009</v>
       </c>
       <c r="C12">
-        <v>-0.05134770151208967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03620958035042204</v>
+      </c>
+      <c r="D12">
+        <v>-0.05290709943454338</v>
+      </c>
+      <c r="E12">
+        <v>0.006983372248678163</v>
+      </c>
+      <c r="F12">
+        <v>-0.03230130833072228</v>
+      </c>
+      <c r="G12">
+        <v>-0.01325282403976962</v>
+      </c>
+      <c r="H12">
+        <v>0.0458130926546591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.05713568416532038</v>
+        <v>0.06455249866079092</v>
       </c>
       <c r="C13">
-        <v>-0.04989510723447928</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03064374693059583</v>
+      </c>
+      <c r="D13">
+        <v>-0.04165457215737984</v>
+      </c>
+      <c r="E13">
+        <v>-0.001704040702986453</v>
+      </c>
+      <c r="F13">
+        <v>-0.006410316296447544</v>
+      </c>
+      <c r="G13">
+        <v>0.0004829802102603558</v>
+      </c>
+      <c r="H13">
+        <v>0.06144568481892707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03046977883662275</v>
+        <v>0.03975574897348219</v>
       </c>
       <c r="C14">
-        <v>-0.03005756013223877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02387070749667905</v>
+      </c>
+      <c r="D14">
+        <v>-0.006108345064746357</v>
+      </c>
+      <c r="E14">
+        <v>0.01776873990972282</v>
+      </c>
+      <c r="F14">
+        <v>-0.02133417338196273</v>
+      </c>
+      <c r="G14">
+        <v>0.004646373020914132</v>
+      </c>
+      <c r="H14">
+        <v>0.05494999229074204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03979763558941193</v>
+        <v>0.04050754579807794</v>
       </c>
       <c r="C15">
-        <v>-0.01265040857673729</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.002414467056616444</v>
+      </c>
+      <c r="D15">
+        <v>-0.01086722018191528</v>
+      </c>
+      <c r="E15">
+        <v>0.03949612658119968</v>
+      </c>
+      <c r="F15">
+        <v>-0.004195893478207731</v>
+      </c>
+      <c r="G15">
+        <v>0.01898426756647719</v>
+      </c>
+      <c r="H15">
+        <v>0.05990673617481751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.05555742954129829</v>
+        <v>0.06391810855083666</v>
       </c>
       <c r="C16">
-        <v>-0.04359591047733159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02749429588708304</v>
+      </c>
+      <c r="D16">
+        <v>-0.06238988244685977</v>
+      </c>
+      <c r="E16">
+        <v>-0.002667039624388232</v>
+      </c>
+      <c r="F16">
+        <v>-0.03055990009557944</v>
+      </c>
+      <c r="G16">
+        <v>-0.007905686031135848</v>
+      </c>
+      <c r="H16">
+        <v>0.05160446528297664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06119477352588172</v>
+        <v>0.06258633160462063</v>
       </c>
       <c r="C20">
-        <v>-0.03726803169380564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0167977047786607</v>
+      </c>
+      <c r="D20">
+        <v>-0.05437079657405168</v>
+      </c>
+      <c r="E20">
+        <v>0.01469715778671596</v>
+      </c>
+      <c r="F20">
+        <v>-0.03149433061645431</v>
+      </c>
+      <c r="G20">
+        <v>-0.008500095260742411</v>
+      </c>
+      <c r="H20">
+        <v>0.04379843065064438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02376008226889807</v>
+        <v>0.02321514703695622</v>
       </c>
       <c r="C21">
-        <v>0.003571049975539288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01090506068251067</v>
+      </c>
+      <c r="D21">
+        <v>-0.036076747672688</v>
+      </c>
+      <c r="E21">
+        <v>0.07976223220959011</v>
+      </c>
+      <c r="F21">
+        <v>-0.004157598856346037</v>
+      </c>
+      <c r="G21">
+        <v>0.004328124999288515</v>
+      </c>
+      <c r="H21">
+        <v>-0.01486783910268233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.06790752136361698</v>
+        <v>0.06197172076689874</v>
       </c>
       <c r="C22">
-        <v>-0.06955817444217637</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04041674238488248</v>
+      </c>
+      <c r="D22">
+        <v>-0.09741800336976787</v>
+      </c>
+      <c r="E22">
+        <v>0.6221615565808742</v>
+      </c>
+      <c r="F22">
+        <v>0.09002280748757471</v>
+      </c>
+      <c r="G22">
+        <v>-0.02467706987892854</v>
+      </c>
+      <c r="H22">
+        <v>-0.1123466044326066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.06910219551934402</v>
+        <v>0.062456868696163</v>
       </c>
       <c r="C23">
-        <v>-0.06894764960524813</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03930722130539289</v>
+      </c>
+      <c r="D23">
+        <v>-0.09825896644576569</v>
+      </c>
+      <c r="E23">
+        <v>0.6211795768176525</v>
+      </c>
+      <c r="F23">
+        <v>0.08928576750250736</v>
+      </c>
+      <c r="G23">
+        <v>-0.02346909170049047</v>
+      </c>
+      <c r="H23">
+        <v>-0.1074577484346848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.06436774840427431</v>
+        <v>0.07546461939576994</v>
       </c>
       <c r="C24">
-        <v>-0.05267142837827043</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03341179583169242</v>
+      </c>
+      <c r="D24">
+        <v>-0.06504325327559278</v>
+      </c>
+      <c r="E24">
+        <v>0.005191941839978534</v>
+      </c>
+      <c r="F24">
+        <v>-0.04394252210945519</v>
+      </c>
+      <c r="G24">
+        <v>-0.004389944727405577</v>
+      </c>
+      <c r="H24">
+        <v>0.05930030107379215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.064541106851362</v>
+        <v>0.07375875397666103</v>
       </c>
       <c r="C25">
-        <v>-0.05906915083613012</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03850394683657026</v>
+      </c>
+      <c r="D25">
+        <v>-0.06225126487599945</v>
+      </c>
+      <c r="E25">
+        <v>0.009252187288774425</v>
+      </c>
+      <c r="F25">
+        <v>-0.04083864478389981</v>
+      </c>
+      <c r="G25">
+        <v>0.007539358840044146</v>
+      </c>
+      <c r="H25">
+        <v>0.06395218081972584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.03936850574054655</v>
+        <v>0.04285264475861873</v>
       </c>
       <c r="C26">
-        <v>-0.01493006896795222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.00523604758159815</v>
+      </c>
+      <c r="D26">
+        <v>-0.02781577862831209</v>
+      </c>
+      <c r="E26">
+        <v>0.03432760912419918</v>
+      </c>
+      <c r="F26">
+        <v>-0.0292762251096911</v>
+      </c>
+      <c r="G26">
+        <v>-0.01041719854488042</v>
+      </c>
+      <c r="H26">
+        <v>0.0633355617887691</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06140431190953597</v>
+        <v>0.07947220880876865</v>
       </c>
       <c r="C28">
-        <v>-0.07453242260704918</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.0705042694689285</v>
+      </c>
+      <c r="D28">
+        <v>0.318449785374107</v>
+      </c>
+      <c r="E28">
+        <v>0.03171759204226848</v>
+      </c>
+      <c r="F28">
+        <v>-0.05403229624583085</v>
+      </c>
+      <c r="G28">
+        <v>0.02178029296228204</v>
+      </c>
+      <c r="H28">
+        <v>0.005595999888905326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.03666977578558556</v>
+        <v>0.0446714692672228</v>
       </c>
       <c r="C29">
-        <v>-0.02895021725657855</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02142077432546893</v>
+      </c>
+      <c r="D29">
+        <v>-0.01318856385476182</v>
+      </c>
+      <c r="E29">
+        <v>0.03748805285627517</v>
+      </c>
+      <c r="F29">
+        <v>-0.01859901195645189</v>
+      </c>
+      <c r="G29">
+        <v>-0.0166615119529717</v>
+      </c>
+      <c r="H29">
+        <v>0.08944515214199614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1135441152757996</v>
+        <v>0.1303924387122974</v>
       </c>
       <c r="C30">
-        <v>-0.09910394845864373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06364437179009452</v>
+      </c>
+      <c r="D30">
+        <v>-0.09487423430362628</v>
+      </c>
+      <c r="E30">
+        <v>0.0431913191418186</v>
+      </c>
+      <c r="F30">
+        <v>-0.02300534195186418</v>
+      </c>
+      <c r="G30">
+        <v>0.02874621630846399</v>
+      </c>
+      <c r="H30">
+        <v>-0.04051883733763051</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03775583296775238</v>
+        <v>0.04412885806038595</v>
       </c>
       <c r="C31">
-        <v>-0.02295449410193933</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01323615636734588</v>
+      </c>
+      <c r="D31">
+        <v>-0.02903901384781954</v>
+      </c>
+      <c r="E31">
+        <v>0.02064790083666187</v>
+      </c>
+      <c r="F31">
+        <v>-0.01634982184548016</v>
+      </c>
+      <c r="G31">
+        <v>-0.02385559504207068</v>
+      </c>
+      <c r="H31">
+        <v>0.06660722897484996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0350572541888691</v>
+        <v>0.03336175101175268</v>
       </c>
       <c r="C32">
-        <v>-0.0218159995456592</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01139492357276187</v>
+      </c>
+      <c r="D32">
+        <v>-0.01314067018680727</v>
+      </c>
+      <c r="E32">
+        <v>0.06945054353535472</v>
+      </c>
+      <c r="F32">
+        <v>-0.003453443841177752</v>
+      </c>
+      <c r="G32">
+        <v>0.03316995474228158</v>
+      </c>
+      <c r="H32">
+        <v>0.03533552260656903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.07389131029040714</v>
+        <v>0.08793764102999693</v>
       </c>
       <c r="C33">
-        <v>-0.05084518491892227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03144122665540235</v>
+      </c>
+      <c r="D33">
+        <v>-0.06049483106017473</v>
+      </c>
+      <c r="E33">
+        <v>0.01386446188641632</v>
+      </c>
+      <c r="F33">
+        <v>-0.01128177416074899</v>
+      </c>
+      <c r="G33">
+        <v>-0.01674723848001812</v>
+      </c>
+      <c r="H33">
+        <v>0.05686924281511205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05140114033189328</v>
+        <v>0.05817746655944715</v>
       </c>
       <c r="C34">
-        <v>-0.03344226845065434</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01741143824645667</v>
+      </c>
+      <c r="D34">
+        <v>-0.06206063264871803</v>
+      </c>
+      <c r="E34">
+        <v>0.00111412930083002</v>
+      </c>
+      <c r="F34">
+        <v>-0.0268800834963365</v>
+      </c>
+      <c r="G34">
+        <v>-0.00247952569902697</v>
+      </c>
+      <c r="H34">
+        <v>0.04399231237241943</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03525565453996302</v>
+        <v>0.04011832883805911</v>
       </c>
       <c r="C35">
-        <v>-0.01117830385141121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.003762694194476535</v>
+      </c>
+      <c r="D35">
+        <v>-0.01588858801480338</v>
+      </c>
+      <c r="E35">
+        <v>0.02060260992050006</v>
+      </c>
+      <c r="F35">
+        <v>-0.003452045586942577</v>
+      </c>
+      <c r="G35">
+        <v>-0.01478457404090908</v>
+      </c>
+      <c r="H35">
+        <v>0.03605405850998204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01739181993475158</v>
+        <v>0.02471629504238169</v>
       </c>
       <c r="C36">
-        <v>-0.0167741223285138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01296467666409299</v>
+      </c>
+      <c r="D36">
+        <v>-0.02010074147021158</v>
+      </c>
+      <c r="E36">
+        <v>0.03699780701585809</v>
+      </c>
+      <c r="F36">
+        <v>-0.02373252603764176</v>
+      </c>
+      <c r="G36">
+        <v>-0.01601521095452648</v>
+      </c>
+      <c r="H36">
+        <v>0.05278316530947161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03870392084705038</v>
+        <v>0.04255126488073262</v>
       </c>
       <c r="C38">
-        <v>-0.01024006234349472</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002012228945137685</v>
+      </c>
+      <c r="D38">
+        <v>-0.0201695924635856</v>
+      </c>
+      <c r="E38">
+        <v>0.06018417961281265</v>
+      </c>
+      <c r="F38">
+        <v>0.01011856088157841</v>
+      </c>
+      <c r="G38">
+        <v>0.01694168213149035</v>
+      </c>
+      <c r="H38">
+        <v>0.04088892139997667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.08503054730569795</v>
+        <v>0.09991029453100754</v>
       </c>
       <c r="C39">
-        <v>-0.08074918905857426</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05409902069721258</v>
+      </c>
+      <c r="D39">
+        <v>-0.07922287921526032</v>
+      </c>
+      <c r="E39">
+        <v>-0.01471224782392458</v>
+      </c>
+      <c r="F39">
+        <v>-0.01789361520668605</v>
+      </c>
+      <c r="G39">
+        <v>0.02041570151930471</v>
+      </c>
+      <c r="H39">
+        <v>0.04447494734845882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.06784400424308697</v>
+        <v>0.0703122105576226</v>
       </c>
       <c r="C40">
-        <v>-0.057341884121295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03360796663249984</v>
+      </c>
+      <c r="D40">
+        <v>-0.009747531223786524</v>
+      </c>
+      <c r="E40">
+        <v>0.02826744987485016</v>
+      </c>
+      <c r="F40">
+        <v>0.05305643552685402</v>
+      </c>
+      <c r="G40">
+        <v>0.07914355106202013</v>
+      </c>
+      <c r="H40">
+        <v>-0.09981960094353561</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.03839452246599526</v>
+        <v>0.04240356739059633</v>
       </c>
       <c r="C41">
-        <v>-0.01357807931603464</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.004694391134147335</v>
+      </c>
+      <c r="D41">
+        <v>-0.04149426561446642</v>
+      </c>
+      <c r="E41">
+        <v>0.007293819756063387</v>
+      </c>
+      <c r="F41">
+        <v>0.005436301218707413</v>
+      </c>
+      <c r="G41">
+        <v>0.009113638704484613</v>
+      </c>
+      <c r="H41">
+        <v>0.04414937277125657</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0431936385839639</v>
+        <v>0.05189862782226391</v>
       </c>
       <c r="C43">
-        <v>-0.03162533087581156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01944401049274577</v>
+      </c>
+      <c r="D43">
+        <v>-0.02871509505361557</v>
+      </c>
+      <c r="E43">
+        <v>0.01532351322834877</v>
+      </c>
+      <c r="F43">
+        <v>-0.01623200546472782</v>
+      </c>
+      <c r="G43">
+        <v>-0.009855942782486103</v>
+      </c>
+      <c r="H43">
+        <v>0.05071733564200105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0906616460136863</v>
+        <v>0.09078761796265401</v>
       </c>
       <c r="C44">
-        <v>-0.0953884318537945</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06069807113239373</v>
+      </c>
+      <c r="D44">
+        <v>-0.06029457538900541</v>
+      </c>
+      <c r="E44">
+        <v>0.09516085377724656</v>
+      </c>
+      <c r="F44">
+        <v>-0.06565934536780485</v>
+      </c>
+      <c r="G44">
+        <v>0.02561675654837926</v>
+      </c>
+      <c r="H44">
+        <v>-0.06323889066297013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02591279901213412</v>
+        <v>0.02844178007912794</v>
       </c>
       <c r="C46">
-        <v>-0.01773850413678521</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.009512067361223725</v>
+      </c>
+      <c r="D46">
+        <v>-0.03439564919707379</v>
+      </c>
+      <c r="E46">
+        <v>0.01563894499388825</v>
+      </c>
+      <c r="F46">
+        <v>-0.02066747724383112</v>
+      </c>
+      <c r="G46">
+        <v>-0.0006892151474643941</v>
+      </c>
+      <c r="H46">
+        <v>0.04350304150878173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02593787009470621</v>
+        <v>0.02852873196200422</v>
       </c>
       <c r="C47">
-        <v>-0.02041388461849186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01272878675476007</v>
+      </c>
+      <c r="D47">
+        <v>-0.01318641790243148</v>
+      </c>
+      <c r="E47">
+        <v>0.04507890585421668</v>
+      </c>
+      <c r="F47">
+        <v>-0.0174510698311051</v>
+      </c>
+      <c r="G47">
+        <v>-0.0366049194337791</v>
+      </c>
+      <c r="H47">
+        <v>0.03319551904071523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02758136177077445</v>
+        <v>0.03240359968378039</v>
       </c>
       <c r="C48">
-        <v>-0.02006952374556913</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.0117992808694779</v>
+      </c>
+      <c r="D48">
+        <v>-0.03365735093232521</v>
+      </c>
+      <c r="E48">
+        <v>0.04043430696778524</v>
+      </c>
+      <c r="F48">
+        <v>-0.01830652904748034</v>
+      </c>
+      <c r="G48">
+        <v>0.003321252925954568</v>
+      </c>
+      <c r="H48">
+        <v>0.05617119558833816</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1507409289635182</v>
+        <v>0.1793899867975337</v>
       </c>
       <c r="C49">
-        <v>-0.09065598878758337</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05349834565161767</v>
+      </c>
+      <c r="D49">
+        <v>-0.02637463338292564</v>
+      </c>
+      <c r="E49">
+        <v>-0.1302231776046471</v>
+      </c>
+      <c r="F49">
+        <v>-0.02357171201365471</v>
+      </c>
+      <c r="G49">
+        <v>-0.03880264072245027</v>
+      </c>
+      <c r="H49">
+        <v>-0.2709810678052522</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03341042634747211</v>
+        <v>0.04226782707469252</v>
       </c>
       <c r="C50">
-        <v>-0.02829432374197814</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02164197814646182</v>
+      </c>
+      <c r="D50">
+        <v>-0.03525686634567082</v>
+      </c>
+      <c r="E50">
+        <v>0.0448404440935914</v>
+      </c>
+      <c r="F50">
+        <v>-0.02998322185775637</v>
+      </c>
+      <c r="G50">
+        <v>-0.02178363318773509</v>
+      </c>
+      <c r="H50">
+        <v>0.07129147270870508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02388881780350748</v>
+        <v>0.02660951803222189</v>
       </c>
       <c r="C51">
-        <v>-0.01402382344209516</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.008919927472141145</v>
+      </c>
+      <c r="D51">
+        <v>-0.02229877506457983</v>
+      </c>
+      <c r="E51">
+        <v>0.01444777986182186</v>
+      </c>
+      <c r="F51">
+        <v>-0.01165726287146088</v>
+      </c>
+      <c r="G51">
+        <v>0.004232373704238653</v>
+      </c>
+      <c r="H51">
+        <v>0.01459594387623707</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1381266412074998</v>
+        <v>0.1582869361988709</v>
       </c>
       <c r="C53">
-        <v>-0.09547274635663296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06375077804239467</v>
+      </c>
+      <c r="D53">
+        <v>-0.02296009698927523</v>
+      </c>
+      <c r="E53">
+        <v>-0.04075405758953318</v>
+      </c>
+      <c r="F53">
+        <v>-0.01131890317618308</v>
+      </c>
+      <c r="G53">
+        <v>-0.003448294156022772</v>
+      </c>
+      <c r="H53">
+        <v>0.1518980067369923</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05156662300958127</v>
+        <v>0.05547869065668324</v>
       </c>
       <c r="C54">
-        <v>-0.02815210898887559</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01317976793504835</v>
+      </c>
+      <c r="D54">
+        <v>-0.03269696450575219</v>
+      </c>
+      <c r="E54">
+        <v>0.04615929489165514</v>
+      </c>
+      <c r="F54">
+        <v>-0.02222198266421301</v>
+      </c>
+      <c r="G54">
+        <v>0.001489986628752463</v>
+      </c>
+      <c r="H54">
+        <v>0.06139527303086819</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09116628399076104</v>
+        <v>0.09901004915365511</v>
       </c>
       <c r="C55">
-        <v>-0.06139578652302726</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03879287286281285</v>
+      </c>
+      <c r="D55">
+        <v>-0.03087183132991441</v>
+      </c>
+      <c r="E55">
+        <v>0.00653624485256561</v>
+      </c>
+      <c r="F55">
+        <v>-0.0218557251860835</v>
+      </c>
+      <c r="G55">
+        <v>-0.002941748398116113</v>
+      </c>
+      <c r="H55">
+        <v>0.1369499326522668</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1371710349711593</v>
+        <v>0.1570497810191564</v>
       </c>
       <c r="C56">
-        <v>-0.1068271511648711</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07257441054527974</v>
+      </c>
+      <c r="D56">
+        <v>-0.01691123477912558</v>
+      </c>
+      <c r="E56">
+        <v>-0.04305221181364372</v>
+      </c>
+      <c r="F56">
+        <v>-0.04014071433175181</v>
+      </c>
+      <c r="G56">
+        <v>-0.01900312010349569</v>
+      </c>
+      <c r="H56">
+        <v>0.1490328661466393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1158866286911258</v>
+        <v>0.09997487466320375</v>
       </c>
       <c r="C58">
-        <v>-0.02570810261825797</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.01569662291524506</v>
+      </c>
+      <c r="D58">
+        <v>-0.06155982882767318</v>
+      </c>
+      <c r="E58">
+        <v>0.1819485590605943</v>
+      </c>
+      <c r="F58">
+        <v>-0.03461368016972916</v>
+      </c>
+      <c r="G58">
+        <v>-0.04550844214493922</v>
+      </c>
+      <c r="H58">
+        <v>-0.1928365811775655</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1166373827950817</v>
+        <v>0.1515258031257283</v>
       </c>
       <c r="C59">
-        <v>-0.08729748868959306</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.07991788368468015</v>
+      </c>
+      <c r="D59">
+        <v>0.3551504786885879</v>
+      </c>
+      <c r="E59">
+        <v>0.04320342754861972</v>
+      </c>
+      <c r="F59">
+        <v>0.01140643685993441</v>
+      </c>
+      <c r="G59">
+        <v>-0.04241431039657018</v>
+      </c>
+      <c r="H59">
+        <v>0.0003600088657571952</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1881400660898042</v>
+        <v>0.2207308488635535</v>
       </c>
       <c r="C60">
-        <v>-0.1166127422528961</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.0742663516933716</v>
+      </c>
+      <c r="D60">
+        <v>-0.02632302744810093</v>
+      </c>
+      <c r="E60">
+        <v>-0.07304216423366097</v>
+      </c>
+      <c r="F60">
+        <v>-0.04013142740005476</v>
+      </c>
+      <c r="G60">
+        <v>0.02487966046891284</v>
+      </c>
+      <c r="H60">
+        <v>-0.1689504869381637</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07350512100075941</v>
+        <v>0.08457748350780037</v>
       </c>
       <c r="C61">
-        <v>-0.06165336297696063</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.0406437482961839</v>
+      </c>
+      <c r="D61">
+        <v>-0.05911250846948918</v>
+      </c>
+      <c r="E61">
+        <v>-0.01652352312569235</v>
+      </c>
+      <c r="F61">
+        <v>-0.008615197206400773</v>
+      </c>
+      <c r="G61">
+        <v>-0.01470527059040275</v>
+      </c>
+      <c r="H61">
+        <v>0.06943740125256809</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1189302008892938</v>
+        <v>0.138358094526315</v>
       </c>
       <c r="C62">
-        <v>-0.08124974328385187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05398820631188034</v>
+      </c>
+      <c r="D62">
+        <v>-0.02530384427349049</v>
+      </c>
+      <c r="E62">
+        <v>-0.05523759040132306</v>
+      </c>
+      <c r="F62">
+        <v>-0.01217854410541894</v>
+      </c>
+      <c r="G62">
+        <v>0.02792018960435542</v>
+      </c>
+      <c r="H62">
+        <v>0.1519779075919293</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.04957357134150633</v>
+        <v>0.05068648375997946</v>
       </c>
       <c r="C63">
-        <v>-0.03239431487635273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01753708544449645</v>
+      </c>
+      <c r="D63">
+        <v>-0.02947323722056634</v>
+      </c>
+      <c r="E63">
+        <v>0.04647813813377371</v>
+      </c>
+      <c r="F63">
+        <v>-0.01530918389805697</v>
+      </c>
+      <c r="G63">
+        <v>0.03051367794517253</v>
+      </c>
+      <c r="H63">
+        <v>0.08559064187919276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1053465161769926</v>
+        <v>0.1116027241269811</v>
       </c>
       <c r="C64">
-        <v>-0.04060170316856188</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01231666899416931</v>
+      </c>
+      <c r="D64">
+        <v>-0.0470165528050431</v>
+      </c>
+      <c r="E64">
+        <v>0.02143743377872232</v>
+      </c>
+      <c r="F64">
+        <v>-0.05702218406159362</v>
+      </c>
+      <c r="G64">
+        <v>0.02053842059323261</v>
+      </c>
+      <c r="H64">
+        <v>0.07793071824491449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1114834905870893</v>
+        <v>0.1248200578934467</v>
       </c>
       <c r="C65">
-        <v>-0.06618941580929982</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04021936573917089</v>
+      </c>
+      <c r="D65">
+        <v>-0.008539735977956779</v>
+      </c>
+      <c r="E65">
+        <v>-0.004270026730845144</v>
+      </c>
+      <c r="F65">
+        <v>-0.0651063407760608</v>
+      </c>
+      <c r="G65">
+        <v>0.03616929541900996</v>
+      </c>
+      <c r="H65">
+        <v>-0.09052827566660189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1312233556537329</v>
+        <v>0.1503250840292504</v>
       </c>
       <c r="C66">
-        <v>-0.09271218576117726</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05650945588062039</v>
+      </c>
+      <c r="D66">
+        <v>-0.117865176135795</v>
+      </c>
+      <c r="E66">
+        <v>-0.05532111427185685</v>
+      </c>
+      <c r="F66">
+        <v>-0.03104049651140245</v>
+      </c>
+      <c r="G66">
+        <v>0.02341364790349416</v>
+      </c>
+      <c r="H66">
+        <v>0.1192553021705369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07003358603835705</v>
+        <v>0.07727127940816071</v>
       </c>
       <c r="C67">
-        <v>-0.02203015001556378</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.006818207607439671</v>
+      </c>
+      <c r="D67">
+        <v>-0.030915738973946</v>
+      </c>
+      <c r="E67">
+        <v>0.02559844764804065</v>
+      </c>
+      <c r="F67">
+        <v>-0.008611460710993609</v>
+      </c>
+      <c r="G67">
+        <v>-0.004286886875594154</v>
+      </c>
+      <c r="H67">
+        <v>0.03423008799915299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06141821964620697</v>
+        <v>0.07297928705657639</v>
       </c>
       <c r="C68">
-        <v>-0.05047743062260838</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04658956664111493</v>
+      </c>
+      <c r="D68">
+        <v>0.2640108355945073</v>
+      </c>
+      <c r="E68">
+        <v>0.04740063202617111</v>
+      </c>
+      <c r="F68">
+        <v>-0.01124990494922551</v>
+      </c>
+      <c r="G68">
+        <v>-0.009225993056651696</v>
+      </c>
+      <c r="H68">
+        <v>0.02164276955367269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.04706119360251287</v>
+        <v>0.0468611073366418</v>
       </c>
       <c r="C69">
-        <v>-0.02417471884636881</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.00847851819858805</v>
+      </c>
+      <c r="D69">
+        <v>-0.02554548674821761</v>
+      </c>
+      <c r="E69">
+        <v>0.02136060978199911</v>
+      </c>
+      <c r="F69">
+        <v>0.001250136104962552</v>
+      </c>
+      <c r="G69">
+        <v>-0.0100494400351349</v>
+      </c>
+      <c r="H69">
+        <v>0.06121309862639331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004708003172920663</v>
+        <v>0.01822457834611169</v>
       </c>
       <c r="C70">
-        <v>0.003361766245459225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0009622481948110265</v>
+      </c>
+      <c r="D70">
+        <v>0.002252477709768442</v>
+      </c>
+      <c r="E70">
+        <v>-0.02480665519503792</v>
+      </c>
+      <c r="F70">
+        <v>-0.01849020582851048</v>
+      </c>
+      <c r="G70">
+        <v>-0.020304989541462</v>
+      </c>
+      <c r="H70">
+        <v>-0.04955249608247953</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.0654546117570768</v>
+        <v>0.07744474411266193</v>
       </c>
       <c r="C71">
-        <v>-0.04721241880031146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04367663499341549</v>
+      </c>
+      <c r="D71">
+        <v>0.295365591402879</v>
+      </c>
+      <c r="E71">
+        <v>0.04224262716681</v>
+      </c>
+      <c r="F71">
+        <v>-0.03956619041349997</v>
+      </c>
+      <c r="G71">
+        <v>-0.007314076418509678</v>
+      </c>
+      <c r="H71">
+        <v>0.008850640140808363</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1336479558166095</v>
+        <v>0.1540626379200628</v>
       </c>
       <c r="C72">
-        <v>-0.07354185280812457</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04231191308170214</v>
+      </c>
+      <c r="D72">
+        <v>-0.006708287352760869</v>
+      </c>
+      <c r="E72">
+        <v>-0.08026087593274425</v>
+      </c>
+      <c r="F72">
+        <v>0.166858143542787</v>
+      </c>
+      <c r="G72">
+        <v>0.1182036848543543</v>
+      </c>
+      <c r="H72">
+        <v>0.02019934510614092</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2487690888928435</v>
+        <v>0.2810320351317148</v>
       </c>
       <c r="C73">
-        <v>-0.141334162093629</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.07522620092814619</v>
+      </c>
+      <c r="D73">
+        <v>-0.08852743265133566</v>
+      </c>
+      <c r="E73">
+        <v>-0.1897654608720073</v>
+      </c>
+      <c r="F73">
+        <v>-0.0662903874332724</v>
+      </c>
+      <c r="G73">
+        <v>-0.1685837658762444</v>
+      </c>
+      <c r="H73">
+        <v>-0.5975499165729803</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.0714179948954663</v>
+        <v>0.08797457768627197</v>
       </c>
       <c r="C74">
-        <v>-0.0835133819769866</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06343215375701672</v>
+      </c>
+      <c r="D74">
+        <v>-0.02958553258673068</v>
+      </c>
+      <c r="E74">
+        <v>-0.006835871601166151</v>
+      </c>
+      <c r="F74">
+        <v>0.01383716720867813</v>
+      </c>
+      <c r="G74">
+        <v>-0.03795521603492185</v>
+      </c>
+      <c r="H74">
+        <v>0.1270678415010577</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09256440296061426</v>
+        <v>0.1014373690308488</v>
       </c>
       <c r="C75">
-        <v>-0.06229624057185391</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03292778111430245</v>
+      </c>
+      <c r="D75">
+        <v>-0.011138889704687</v>
+      </c>
+      <c r="E75">
+        <v>-0.00712173266581786</v>
+      </c>
+      <c r="F75">
+        <v>-0.0468678668896336</v>
+      </c>
+      <c r="G75">
+        <v>-0.02071720604785673</v>
+      </c>
+      <c r="H75">
+        <v>0.1166509803419638</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.11532231622051</v>
+        <v>0.1317650653245422</v>
       </c>
       <c r="C76">
-        <v>-0.0962040617537664</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06580518275233432</v>
+      </c>
+      <c r="D76">
+        <v>-0.04939576834316423</v>
+      </c>
+      <c r="E76">
+        <v>0.005986258184639786</v>
+      </c>
+      <c r="F76">
+        <v>-0.06062232911500001</v>
+      </c>
+      <c r="G76">
+        <v>-0.01054974797801463</v>
+      </c>
+      <c r="H76">
+        <v>0.1569757061208175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1145748520697528</v>
+        <v>0.1130932086736081</v>
       </c>
       <c r="C77">
-        <v>-0.05309529118336302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.0180545807522829</v>
+      </c>
+      <c r="D77">
+        <v>-0.01479667855047171</v>
+      </c>
+      <c r="E77">
+        <v>-0.014459407906763</v>
+      </c>
+      <c r="F77">
+        <v>-0.2399502732833421</v>
+      </c>
+      <c r="G77">
+        <v>0.8849951040395357</v>
+      </c>
+      <c r="H77">
+        <v>-0.1079888949279306</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.08814878259240243</v>
+        <v>0.1122465312426056</v>
       </c>
       <c r="C78">
-        <v>-0.0474910869074294</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.0304592758139967</v>
+      </c>
+      <c r="D78">
+        <v>-0.08511882355001245</v>
+      </c>
+      <c r="E78">
+        <v>0.06291832085055683</v>
+      </c>
+      <c r="F78">
+        <v>-0.02037355183077926</v>
+      </c>
+      <c r="G78">
+        <v>0.03722122736607326</v>
+      </c>
+      <c r="H78">
+        <v>-0.109842205842371</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1350401924635066</v>
+        <v>0.1497539078673308</v>
       </c>
       <c r="C79">
-        <v>-0.1005521696995071</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06089078159094402</v>
+      </c>
+      <c r="D79">
+        <v>-0.02921750982914072</v>
+      </c>
+      <c r="E79">
+        <v>-0.02688168613241301</v>
+      </c>
+      <c r="F79">
+        <v>-0.02171655360002004</v>
+      </c>
+      <c r="G79">
+        <v>-0.02105338948275548</v>
+      </c>
+      <c r="H79">
+        <v>0.1489475489997667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03988513309661779</v>
+        <v>0.03917241261057634</v>
       </c>
       <c r="C80">
-        <v>-0.01924927627662313</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.007087763730770935</v>
+      </c>
+      <c r="D80">
+        <v>-0.02992379003768951</v>
+      </c>
+      <c r="E80">
+        <v>-0.004525194050205304</v>
+      </c>
+      <c r="F80">
+        <v>0.02295304686000202</v>
+      </c>
+      <c r="G80">
+        <v>-0.03442496543667789</v>
+      </c>
+      <c r="H80">
+        <v>0.0434272045654921</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1090891581952345</v>
+        <v>0.1174889994279034</v>
       </c>
       <c r="C81">
-        <v>-0.07596705246922238</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.04372454327437029</v>
+      </c>
+      <c r="D81">
+        <v>-0.02832294981913824</v>
+      </c>
+      <c r="E81">
+        <v>-0.008636195863359841</v>
+      </c>
+      <c r="F81">
+        <v>-0.02304114759837019</v>
+      </c>
+      <c r="G81">
+        <v>-0.05758287661423087</v>
+      </c>
+      <c r="H81">
+        <v>0.1772769043535385</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1165945038238893</v>
+        <v>0.1268659293884169</v>
       </c>
       <c r="C82">
-        <v>-0.08897641990702204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05628293737749857</v>
+      </c>
+      <c r="D82">
+        <v>-0.03288021966203536</v>
+      </c>
+      <c r="E82">
+        <v>-0.02690824232580704</v>
+      </c>
+      <c r="F82">
+        <v>-0.04781348171647233</v>
+      </c>
+      <c r="G82">
+        <v>-0.05228517709921007</v>
+      </c>
+      <c r="H82">
+        <v>0.1757238856938877</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07382644090983705</v>
+        <v>0.07769932368198236</v>
       </c>
       <c r="C83">
-        <v>-0.02199614269808149</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.002106263506780883</v>
+      </c>
+      <c r="D83">
+        <v>-0.04905710724202145</v>
+      </c>
+      <c r="E83">
+        <v>0.01236332473353063</v>
+      </c>
+      <c r="F83">
+        <v>-0.02125381771534491</v>
+      </c>
+      <c r="G83">
+        <v>-0.08369224455787133</v>
+      </c>
+      <c r="H83">
+        <v>-0.00430380179993891</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02632799166312272</v>
+        <v>0.03648493017426029</v>
       </c>
       <c r="C84">
-        <v>-0.0266500927735608</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.02164900896123415</v>
+      </c>
+      <c r="D84">
+        <v>-0.03380830812046539</v>
+      </c>
+      <c r="E84">
+        <v>0.02589002443899996</v>
+      </c>
+      <c r="F84">
+        <v>0.04865243745324968</v>
+      </c>
+      <c r="G84">
+        <v>-0.05314859432113519</v>
+      </c>
+      <c r="H84">
+        <v>0.01586439689169836</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1128713316912899</v>
+        <v>0.1167227529371018</v>
       </c>
       <c r="C85">
-        <v>-0.07205242017308719</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03722405986276751</v>
+      </c>
+      <c r="D85">
+        <v>-0.03007881265501594</v>
+      </c>
+      <c r="E85">
+        <v>-0.0009853662299278193</v>
+      </c>
+      <c r="F85">
+        <v>-0.07226721532284111</v>
+      </c>
+      <c r="G85">
+        <v>-0.0289944774844159</v>
+      </c>
+      <c r="H85">
+        <v>0.1273761085590809</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.04734589867338945</v>
+        <v>0.0499446886089199</v>
       </c>
       <c r="C86">
-        <v>-0.02716979597382158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01353598146042753</v>
+      </c>
+      <c r="D86">
+        <v>-0.02046146347304321</v>
+      </c>
+      <c r="E86">
+        <v>0.055827405473116</v>
+      </c>
+      <c r="F86">
+        <v>-0.03075619038806118</v>
+      </c>
+      <c r="G86">
+        <v>-0.00633471968951551</v>
+      </c>
+      <c r="H86">
+        <v>0.01081206296030888</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1162447438464975</v>
+        <v>0.1204410445050471</v>
       </c>
       <c r="C87">
-        <v>-0.08171509996382725</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04166313967714839</v>
+      </c>
+      <c r="D87">
+        <v>-0.0712434161257532</v>
+      </c>
+      <c r="E87">
+        <v>0.01288712526342956</v>
+      </c>
+      <c r="F87">
+        <v>-0.01792483224059169</v>
+      </c>
+      <c r="G87">
+        <v>0.1050088037640653</v>
+      </c>
+      <c r="H87">
+        <v>0.004017099108077503</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05151159335318515</v>
+        <v>0.05768094288666159</v>
       </c>
       <c r="C88">
-        <v>-0.03728110988276774</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02276846413120361</v>
+      </c>
+      <c r="D88">
+        <v>-0.02574178260991</v>
+      </c>
+      <c r="E88">
+        <v>0.01630890209999284</v>
+      </c>
+      <c r="F88">
+        <v>-0.010715571650307</v>
+      </c>
+      <c r="G88">
+        <v>0.008922290511143896</v>
+      </c>
+      <c r="H88">
+        <v>0.06929785125642329</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08586757860660515</v>
+        <v>0.1109048006416034</v>
       </c>
       <c r="C89">
-        <v>-0.07160251052928301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.06899731042860595</v>
+      </c>
+      <c r="D89">
+        <v>0.3290474317033705</v>
+      </c>
+      <c r="E89">
+        <v>0.07151579738245205</v>
+      </c>
+      <c r="F89">
+        <v>-0.07044311059818696</v>
+      </c>
+      <c r="G89">
+        <v>-0.02910102946839111</v>
+      </c>
+      <c r="H89">
+        <v>-0.003980130000818963</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07633778036619351</v>
+        <v>0.09327927699546491</v>
       </c>
       <c r="C90">
-        <v>-0.06148893022612931</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.05649205966012864</v>
+      </c>
+      <c r="D90">
+        <v>0.3047370588442905</v>
+      </c>
+      <c r="E90">
+        <v>0.06227368461560084</v>
+      </c>
+      <c r="F90">
+        <v>0.007992488153651183</v>
+      </c>
+      <c r="G90">
+        <v>-0.006750551589613829</v>
+      </c>
+      <c r="H90">
+        <v>0.02380246562777374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.07679409086336803</v>
+        <v>0.0862125862676353</v>
       </c>
       <c r="C91">
-        <v>-0.06502963533051001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04187566787512185</v>
+      </c>
+      <c r="D91">
+        <v>-0.02455004211118364</v>
+      </c>
+      <c r="E91">
+        <v>0.01200942505635252</v>
+      </c>
+      <c r="F91">
+        <v>-0.009708469546233545</v>
+      </c>
+      <c r="G91">
+        <v>-0.0447974322574009</v>
+      </c>
+      <c r="H91">
+        <v>0.08604040372884579</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.08614208741852758</v>
+        <v>0.1038541460151372</v>
       </c>
       <c r="C92">
-        <v>-0.07329923562861758</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06562618718195809</v>
+      </c>
+      <c r="D92">
+        <v>0.3424839115902764</v>
+      </c>
+      <c r="E92">
+        <v>0.04877079287395503</v>
+      </c>
+      <c r="F92">
+        <v>-0.03061377828804486</v>
+      </c>
+      <c r="G92">
+        <v>-0.004893459431832002</v>
+      </c>
+      <c r="H92">
+        <v>0.02317863429101972</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06944045045651341</v>
+        <v>0.08911278481368487</v>
       </c>
       <c r="C93">
-        <v>-0.06294696446223029</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06183983052549127</v>
+      </c>
+      <c r="D93">
+        <v>0.3020901310224684</v>
+      </c>
+      <c r="E93">
+        <v>0.03257318655366003</v>
+      </c>
+      <c r="F93">
+        <v>-0.04226849200063462</v>
+      </c>
+      <c r="G93">
+        <v>0.0006688649928599492</v>
+      </c>
+      <c r="H93">
+        <v>-0.01177751173249698</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1229936237382873</v>
+        <v>0.1263124061149458</v>
       </c>
       <c r="C94">
-        <v>-0.07537595915365626</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03482027789738112</v>
+      </c>
+      <c r="D94">
+        <v>-0.05339631840784228</v>
+      </c>
+      <c r="E94">
+        <v>-0.02606402948757688</v>
+      </c>
+      <c r="F94">
+        <v>-0.02823881038063862</v>
+      </c>
+      <c r="G94">
+        <v>-0.04568554894098565</v>
+      </c>
+      <c r="H94">
+        <v>0.08416121050580726</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1123223967615219</v>
+        <v>0.118929117192903</v>
       </c>
       <c r="C95">
-        <v>-0.05834306697584222</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02266990174075471</v>
+      </c>
+      <c r="D95">
+        <v>-0.05867452622565433</v>
+      </c>
+      <c r="E95">
+        <v>-0.009033964679414466</v>
+      </c>
+      <c r="F95">
+        <v>-0.02555122245607605</v>
+      </c>
+      <c r="G95">
+        <v>-0.01225951281022338</v>
+      </c>
+      <c r="H95">
+        <v>0.02523369114219902</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2018719788857648</v>
+        <v>0.2193317433989259</v>
       </c>
       <c r="C97">
-        <v>-0.07708213890704275</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.02926052332743283</v>
+      </c>
+      <c r="D97">
+        <v>0.02599892165640169</v>
+      </c>
+      <c r="E97">
+        <v>-0.1002933600029892</v>
+      </c>
+      <c r="F97">
+        <v>0.8998757652142628</v>
+      </c>
+      <c r="G97">
+        <v>0.1859092847967365</v>
+      </c>
+      <c r="H97">
+        <v>0.01590064965714775</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2365134156791964</v>
+        <v>0.2670929598526641</v>
       </c>
       <c r="C98">
-        <v>-0.1168610934090468</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.05526055270584654</v>
+      </c>
+      <c r="D98">
+        <v>-0.06259156382593645</v>
+      </c>
+      <c r="E98">
+        <v>-0.1590009852294321</v>
+      </c>
+      <c r="F98">
+        <v>-0.02329245051850021</v>
+      </c>
+      <c r="G98">
+        <v>-0.2635232541627465</v>
+      </c>
+      <c r="H98">
+        <v>-0.1405296469219374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.5464119317330797</v>
+        <v>0.3340998873677739</v>
       </c>
       <c r="C99">
-        <v>0.8276286176710715</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9310439348827184</v>
+      </c>
+      <c r="D99">
+        <v>0.06806186182016745</v>
+      </c>
+      <c r="E99">
+        <v>0.038499567887303</v>
+      </c>
+      <c r="F99">
+        <v>-0.04094455186473299</v>
+      </c>
+      <c r="G99">
+        <v>-0.01481253825131688</v>
+      </c>
+      <c r="H99">
+        <v>0.04236117728670149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.03673837107510654</v>
+        <v>0.04476454940231652</v>
       </c>
       <c r="C101">
-        <v>-0.02894960852459836</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.0214941635937832</v>
+      </c>
+      <c r="D101">
+        <v>-0.01371191389511048</v>
+      </c>
+      <c r="E101">
+        <v>0.03674768608979283</v>
+      </c>
+      <c r="F101">
+        <v>-0.01797354745148308</v>
+      </c>
+      <c r="G101">
+        <v>-0.01670477606167253</v>
+      </c>
+      <c r="H101">
+        <v>0.08874980168708756</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
